--- a/Demos/Eisenberg-Noe/Eisenberg Noe.xlsx
+++ b/Demos/Eisenberg-Noe/Eisenberg Noe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianbuckley/GitHub/systemic-risk-intro/Demos/Eisenberg-Noe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F88C66C-8BCB-0B42-AF68-ADB2631AF71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44650ABC-D9C1-2244-9C37-B50F32E96BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="5080" windowWidth="46320" windowHeight="28460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="76800" windowHeight="43200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -2361,7 +2361,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>I sent this around in July 2016. Eisenberg Noe 2001 is considered a classic stylized model for network default contagion. It pre-dated the GFC &amp; was likely ignored until after it. Now it has been extended in many ways to make it more realistic &amp; useful. It has variants for liquidity, &amp; hybrid versions with multiple channels of contagion. I dug it out because it comes up a lot in academic circles. One can get the ultimate system loss easily as the fixed</a:t>
+            <a:t>Eisenberg Noe 2001 is considered a classic stylized model for network default contagion. It pre-dated the GFC &amp; was likely ignored until after it. Now it has been extended in many ways to make it more realistic &amp; useful. It has variants for liquidity, &amp; hybrid versions with multiple channels of contagion. I dug it out because it comes up a lot in academic circles. One can get the ultimate system loss easily as the fixed</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" baseline="0"/>
@@ -5521,7 +5521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:E4"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
@@ -5546,7 +5546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
